--- a/EvalOfficiel/Timesheet-evaluation.xlsx
+++ b/EvalOfficiel/Timesheet-evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\S6\evaluation\EvalOfficiel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBEC60C-C578-4488-8CD8-34103103CCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2B3812-3022-4C36-875D-C21FF2CADED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{326CDC2B-B960-2746-B82E-7E70916B4721}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="63">
   <si>
     <t>Taches</t>
   </si>
@@ -193,6 +193,30 @@
   </si>
   <si>
     <t>Login Point_Vente</t>
+  </si>
+  <si>
+    <t>Gestion statistique</t>
+  </si>
+  <si>
+    <t>Calcul de commission</t>
+  </si>
+  <si>
+    <t>Filtre par mois</t>
+  </si>
+  <si>
+    <t>Filtre par annee</t>
+  </si>
+  <si>
+    <t>Modification page de benefice</t>
+  </si>
+  <si>
+    <t>Diagramme en fromage</t>
+  </si>
+  <si>
+    <t>Montant par point de vente</t>
+  </si>
+  <si>
+    <t>Commission par point de vente</t>
   </si>
 </sst>
 </file>
@@ -230,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +453,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -469,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -513,6 +543,8 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B62249D-93D1-B44E-A69D-FF5207EE2BE8}">
   <dimension ref="A1:M164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -905,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="3">
+        <v>60</v>
+      </c>
+      <c r="E5" s="3">
         <v>90</v>
-      </c>
-      <c r="E5" s="3">
-        <v>60</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -929,18 +961,17 @@
         <v>16</v>
       </c>
       <c r="D6" s="3">
+        <v>60</v>
+      </c>
+      <c r="E6" s="3">
         <v>90</v>
       </c>
-      <c r="E6" s="3">
-        <v>25</v>
-      </c>
       <c r="F6" s="4">
-        <f t="shared" ref="F6:F10" si="1">D6-E6</f>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" ref="G6:G56" si="2">(E6/(E6+F6))</f>
-        <v>0.27777777777777779</v>
+        <f t="shared" ref="G6:G56" si="1">(E6/(E6+F6))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -960,11 +991,11 @@
         <v>5</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F6:F10" si="2">D7-E7</f>
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -985,11 +1016,11 @@
         <v>5</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1007,15 +1038,15 @@
         <v>10</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1032,15 +1063,15 @@
         <v>10</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1054,18 +1085,17 @@
         <v>16</v>
       </c>
       <c r="D11" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" ref="F6:F56" si="3">D11-E11</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1079,18 +1109,17 @@
         <v>16</v>
       </c>
       <c r="D12" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1107,15 +1136,15 @@
         <v>10</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" ref="F6:F56" si="3">D13-E13</f>
+        <v>5</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
@@ -1135,15 +1164,15 @@
         <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>9</v>
@@ -1166,14 +1195,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -1197,14 +1225,13 @@
         <v>5</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -1228,15 +1255,15 @@
         <v>10</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="M17" t="s">
         <v>13</v>
@@ -1256,15 +1283,15 @@
         <v>10</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1278,18 +1305,17 @@
         <v>16</v>
       </c>
       <c r="D19" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E19" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1303,18 +1329,17 @@
         <v>16</v>
       </c>
       <c r="D20" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1331,15 +1356,15 @@
         <v>10</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1356,15 +1381,15 @@
         <v>10</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1388,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1413,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1431,15 +1456,15 @@
         <v>10</v>
       </c>
       <c r="E25" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1456,15 +1481,15 @@
         <v>10</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1481,13 +1506,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1505,13 +1530,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1529,15 +1554,15 @@
         <v>10</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1554,15 +1579,15 @@
         <v>10</v>
       </c>
       <c r="E30" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1586,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1611,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1629,15 +1654,15 @@
         <v>10</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1654,15 +1679,15 @@
         <v>10</v>
       </c>
       <c r="E34" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1676,18 +1701,17 @@
         <v>16</v>
       </c>
       <c r="D35" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1704,15 +1728,14 @@
         <v>10</v>
       </c>
       <c r="E36" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1729,15 +1752,15 @@
         <v>10</v>
       </c>
       <c r="E37" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1754,15 +1777,15 @@
         <v>10</v>
       </c>
       <c r="E38" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1786,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1811,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1829,15 +1852,15 @@
         <v>10</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F41" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1854,15 +1877,15 @@
         <v>10</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F42" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1879,15 +1902,14 @@
         <v>10</v>
       </c>
       <c r="E43" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1904,15 +1926,14 @@
         <v>10</v>
       </c>
       <c r="E44" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1929,15 +1950,15 @@
         <v>10</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F45" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G45" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1954,15 +1975,15 @@
         <v>10</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F46" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1986,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2011,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2029,15 +2050,15 @@
         <v>10</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F49" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2054,15 +2075,15 @@
         <v>10</v>
       </c>
       <c r="E50" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F50" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G50" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2086,7 +2107,7 @@
         <v>5</v>
       </c>
       <c r="G51" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
@@ -2111,7 +2132,7 @@
         <v>5</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
@@ -2129,15 +2150,15 @@
         <v>10</v>
       </c>
       <c r="E53" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F53" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G53" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2154,15 +2175,15 @@
         <v>10</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F54" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2186,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2211,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2229,15 +2250,15 @@
         <v>10</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F57" s="4">
         <f t="shared" ref="F57:F85" si="4">D57-E57</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G57" s="5">
         <f t="shared" ref="G57:G85" si="5">(E57/(E57+F57))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2254,15 +2275,15 @@
         <v>10</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G58" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2329,15 +2350,15 @@
         <v>10</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F61" s="4">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G61" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2354,15 +2375,15 @@
         <v>10</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F62" s="4">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G62" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2429,15 +2450,15 @@
         <v>10</v>
       </c>
       <c r="E65" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F65" s="4">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G65" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2454,15 +2475,15 @@
         <v>10</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F66" s="4">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G66" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2529,15 +2550,15 @@
         <v>10</v>
       </c>
       <c r="E69" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F69" s="4">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G69" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2554,15 +2575,15 @@
         <v>10</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F70" s="4">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G70" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2629,15 +2650,15 @@
         <v>10</v>
       </c>
       <c r="E73" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F73" s="4">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G73" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2654,15 +2675,15 @@
         <v>10</v>
       </c>
       <c r="E74" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F74" s="4">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G74" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2679,10 +2700,9 @@
         <v>5</v>
       </c>
       <c r="E75" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F75" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G75" s="5">
@@ -2704,10 +2724,9 @@
         <v>5</v>
       </c>
       <c r="E76" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F76" s="4">
-        <f>D76-E76</f>
         <v>0</v>
       </c>
       <c r="G76" s="5">
@@ -2729,15 +2748,15 @@
         <v>10</v>
       </c>
       <c r="E77" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F77" s="4">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G77" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2754,15 +2773,15 @@
         <v>10</v>
       </c>
       <c r="E78" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F78" s="4">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G78" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2932,7 +2951,7 @@
         <v>20</v>
       </c>
       <c r="F85" s="4">
-        <f t="shared" si="4"/>
+        <f>D85-E85</f>
         <v>0</v>
       </c>
       <c r="G85" s="5">
@@ -2957,11 +2976,11 @@
         <v>20</v>
       </c>
       <c r="F86" s="4">
-        <f t="shared" ref="F86:F135" si="6">D86-E86</f>
+        <f>D86-E86</f>
         <v>0</v>
       </c>
       <c r="G86" s="5">
-        <f t="shared" ref="G86:G135" si="7">(E86/(E86+F86))</f>
+        <f t="shared" ref="G86:G135" si="6">(E86/(E86+F86))</f>
         <v>1</v>
       </c>
     </row>
@@ -2979,13 +2998,13 @@
         <v>20</v>
       </c>
       <c r="E87" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F87" s="4">
         <v>0</v>
       </c>
       <c r="G87" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3003,13 +3022,13 @@
         <v>20</v>
       </c>
       <c r="E88" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F88" s="4">
         <v>0</v>
       </c>
       <c r="G88" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3027,15 +3046,14 @@
         <v>10</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F89" s="4">
+        <v>0</v>
+      </c>
+      <c r="G89" s="5">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="G89" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3052,15 +3070,14 @@
         <v>20</v>
       </c>
       <c r="E90" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F90" s="4">
+        <v>0</v>
+      </c>
+      <c r="G90" s="5">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="G90" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3074,18 +3091,17 @@
         <v>17</v>
       </c>
       <c r="D91" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F91" s="4">
+        <v>0</v>
+      </c>
+      <c r="G91" s="5">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="G91" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3102,15 +3118,14 @@
         <v>20</v>
       </c>
       <c r="E92" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F92" s="4">
+        <v>0</v>
+      </c>
+      <c r="G92" s="5">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="G92" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3124,18 +3139,18 @@
         <v>17</v>
       </c>
       <c r="D93" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E93" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F93" s="4">
+        <f t="shared" ref="F86:F135" si="7">D93-E93</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="5">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="G93" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3152,15 +3167,14 @@
         <v>20</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F94" s="4">
+        <v>0</v>
+      </c>
+      <c r="G94" s="5">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="G94" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3177,15 +3191,14 @@
         <v>10</v>
       </c>
       <c r="E95" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F95" s="4">
+        <v>0</v>
+      </c>
+      <c r="G95" s="5">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="G95" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3202,15 +3215,14 @@
         <v>20</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F96" s="4">
+        <v>0</v>
+      </c>
+      <c r="G96" s="5">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="G96" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3227,15 +3239,14 @@
         <v>10</v>
       </c>
       <c r="E97" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F97" s="4">
+        <v>0</v>
+      </c>
+      <c r="G97" s="5">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="G97" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3249,18 +3260,17 @@
         <v>16</v>
       </c>
       <c r="D98" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E98" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F98" s="4">
+        <v>0</v>
+      </c>
+      <c r="G98" s="5">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="G98" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3277,15 +3287,14 @@
         <v>10</v>
       </c>
       <c r="E99" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F99" s="4">
+        <v>0</v>
+      </c>
+      <c r="G99" s="5">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="G99" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3299,18 +3308,17 @@
         <v>16</v>
       </c>
       <c r="D100" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F100" s="4">
+        <v>0</v>
+      </c>
+      <c r="G100" s="5">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="G100" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3324,18 +3332,17 @@
         <v>17</v>
       </c>
       <c r="D101" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F101" s="4">
+        <v>0</v>
+      </c>
+      <c r="G101" s="5">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="G101" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3349,18 +3356,17 @@
         <v>16</v>
       </c>
       <c r="D102" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F102" s="4">
+        <v>0</v>
+      </c>
+      <c r="G102" s="5">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="G102" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3374,18 +3380,17 @@
         <v>17</v>
       </c>
       <c r="D103" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E103" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F103" s="4">
-        <f>D103-E103</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G103" s="5">
         <f>(E103/(E103+F103))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3399,18 +3404,17 @@
         <v>16</v>
       </c>
       <c r="D104" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E104" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F104" s="4">
-        <f t="shared" ref="F104:F106" si="8">D104-E104</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G104" s="5">
-        <f t="shared" ref="G104:G106" si="9">(E104/(E104+F104))</f>
-        <v>0</v>
+        <f t="shared" ref="G104:G106" si="8">(E104/(E104+F104))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3424,18 +3428,17 @@
         <v>17</v>
       </c>
       <c r="D105" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E105" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F105" s="4">
+        <v>0</v>
+      </c>
+      <c r="G105" s="5">
         <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="G105" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3449,18 +3452,17 @@
         <v>16</v>
       </c>
       <c r="D106" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E106" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F106" s="4">
+        <v>0</v>
+      </c>
+      <c r="G106" s="5">
         <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="G106" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3474,130 +3476,335 @@
         <v>20</v>
       </c>
       <c r="D107" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E107" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F107" s="4">
-        <f>D107-E107</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G107" s="5">
         <f>(E107/(E107+F107))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3">
-        <f>SUM(D5:D107)</f>
-        <v>1260</v>
-      </c>
-      <c r="E108" s="3">
-        <f>SUM(E5:E107)</f>
-        <v>435</v>
-      </c>
-      <c r="F108" s="3">
-        <f>SUM(F10:F107)</f>
-        <v>740</v>
-      </c>
-      <c r="G108" s="6">
-        <f>(E108/(E108+F108))</f>
-        <v>0.37021276595744679</v>
+      <c r="A108" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B108" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="24">
+        <v>15</v>
+      </c>
+      <c r="E108" s="24">
+        <v>20</v>
+      </c>
+      <c r="F108" s="4">
+        <v>0</v>
+      </c>
+      <c r="G108" s="5">
+        <f t="shared" ref="G108:G119" si="9">(E108/(E108+F108))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B109" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="24">
+        <v>5</v>
+      </c>
+      <c r="E109" s="24">
+        <v>5</v>
+      </c>
+      <c r="F109" s="4">
+        <f t="shared" ref="F109:F119" si="10">D109-E109</f>
+        <v>0</v>
+      </c>
+      <c r="G109" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="5"/>
+      <c r="A110" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B110" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="24">
+        <v>5</v>
+      </c>
+      <c r="E110" s="24">
+        <v>5</v>
+      </c>
+      <c r="F110" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="5"/>
+      <c r="A111" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B111" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="24">
+        <v>15</v>
+      </c>
+      <c r="E111" s="24">
+        <v>10</v>
+      </c>
+      <c r="F111" s="4">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G111" s="5">
+        <f t="shared" si="9"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B112" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="24">
+        <v>15</v>
+      </c>
+      <c r="E112" s="24">
+        <v>10</v>
+      </c>
+      <c r="F112" s="4">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G112" s="5">
+        <f t="shared" si="9"/>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="5"/>
+      <c r="A113" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B113" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="24">
+        <v>15</v>
+      </c>
+      <c r="E113" s="24">
+        <v>10</v>
+      </c>
+      <c r="F113" s="4">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G113" s="5">
+        <f t="shared" si="9"/>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="5"/>
+      <c r="A114" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B114" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="24">
+        <v>10</v>
+      </c>
+      <c r="E114" s="24">
+        <v>5</v>
+      </c>
+      <c r="F114" s="4">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G114" s="5">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="5"/>
+      <c r="A115" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B115" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" s="24">
+        <v>10</v>
+      </c>
+      <c r="E115" s="24">
+        <v>5</v>
+      </c>
+      <c r="F115" s="4">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G115" s="5">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="5"/>
+      <c r="A116" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="24">
+        <v>10</v>
+      </c>
+      <c r="E116" s="24">
+        <v>15</v>
+      </c>
+      <c r="F116" s="4">
+        <v>0</v>
+      </c>
+      <c r="G116" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="5"/>
+      <c r="A117" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="24">
+        <v>10</v>
+      </c>
+      <c r="E117" s="24">
+        <v>15</v>
+      </c>
+      <c r="F117" s="4">
+        <v>0</v>
+      </c>
+      <c r="G117" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="5"/>
+      <c r="A118" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B118" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="24">
+        <v>15</v>
+      </c>
+      <c r="E118" s="24">
+        <v>20</v>
+      </c>
+      <c r="F118" s="4">
+        <v>0</v>
+      </c>
+      <c r="G118" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="5"/>
+      <c r="A119" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" s="24">
+        <v>10</v>
+      </c>
+      <c r="E119" s="24">
+        <v>10</v>
+      </c>
+      <c r="F119" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="5"/>
+      <c r="D120" s="3">
+        <f>SUM(D5:D119)</f>
+        <v>1260</v>
+      </c>
+      <c r="E120" s="3">
+        <f>SUM(E5:E119)</f>
+        <v>1490</v>
+      </c>
+      <c r="F120" s="3">
+        <f>SUM(F10:F119)</f>
+        <v>230</v>
+      </c>
+      <c r="G120" s="6">
+        <f>(E120/(E120+F120))</f>
+        <v>0.86627906976744184</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
@@ -3626,15 +3833,6 @@
       <c r="F123" s="4"/>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="5"/>
-    </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
